--- a/PROYECTO_AC1/Mapeo/Mapeo.xlsx
+++ b/PROYECTO_AC1/Mapeo/Mapeo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\ACE2_1S24_G7\PROYECTO_AC1\Mapeo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5993CD5B-19DC-4ECB-B73D-619E456939FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD210239-EA43-4480-894A-6C7711589117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8FE8D32-9FC3-45FB-8246-D125711AFB28}"/>
+    <workbookView xWindow="465" yWindow="0" windowWidth="9930" windowHeight="10920" xr2:uid="{B8FE8D32-9FC3-45FB-8246-D125711AFB28}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prubeas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,24 +37,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>&gt;11</t>
-  </si>
-  <si>
-    <t>&lt;10</t>
-  </si>
-  <si>
-    <t>&lt;7</t>
-  </si>
-  <si>
-    <t>&lt;3 0°</t>
-  </si>
-  <si>
-    <t>&lt;2 18° 36°</t>
-  </si>
-  <si>
-    <t>&lt;6 36°</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Angulo</t>
+  </si>
+  <si>
+    <t>Distancia Max</t>
+  </si>
+  <si>
+    <t>Distancia Min</t>
+  </si>
+  <si>
+    <t>Pixel1</t>
+  </si>
+  <si>
+    <t>Pixel2</t>
+  </si>
+  <si>
+    <t>Pixel3</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>2-3 90º o      2 en75º</t>
+  </si>
+  <si>
+    <t>4-5 90º</t>
+  </si>
+  <si>
+    <t>3-5 en 75º</t>
+  </si>
+  <si>
+    <t>3 en 75º    2-4 en 45º</t>
+  </si>
+  <si>
+    <t>5-10 en 45º</t>
+  </si>
+  <si>
+    <t>7-8 90º</t>
+  </si>
+  <si>
+    <t>6-9 en 75º</t>
+  </si>
+  <si>
+    <t>10-14 60º</t>
+  </si>
+  <si>
+    <t>11-14 en 45º</t>
+  </si>
+  <si>
+    <t>9-11 en 30º</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>7-9 15º</t>
+  </si>
+  <si>
+    <t>1-2 0°</t>
+  </si>
+  <si>
+    <t>3-6 0º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-9 0º </t>
+  </si>
+  <si>
+    <t>3-6 30°</t>
   </si>
 </sst>
 </file>
@@ -122,12 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -135,7 +192,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +899,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,13 +927,17 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>90</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1">
+        <v>60</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>45</v>
       </c>
       <c r="G2" s="1"/>
@@ -879,11 +953,17 @@
     </row>
     <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -899,11 +979,21 @@
     </row>
     <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6">
+        <v>30</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -917,15 +1007,21 @@
     </row>
     <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6">
+        <v>15</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -940,16 +1036,16 @@
     <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6">
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
@@ -1000,7 +1096,9 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1039,4 +1137,153 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77E346A-69A3-4192-A152-8DE8B32F9A6C}">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>B3-15</f>
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>B4-15</f>
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" ref="B6:B8" si="0">B5-15</f>
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>B8-15</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>